--- a/Formulario antiguo - Base de datos.xlsx
+++ b/Formulario antiguo - Base de datos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="88">
   <si>
     <t>Gobernacion maritima</t>
   </si>
@@ -244,6 +244,42 @@
   </si>
   <si>
     <t>cdtppueblooriginario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tipo direccion </t>
+  </si>
+  <si>
+    <t>tipo contacto</t>
+  </si>
+  <si>
+    <t>telefono fijo</t>
+  </si>
+  <si>
+    <t>telefono movil</t>
+  </si>
+  <si>
+    <t>correo electronico</t>
+  </si>
+  <si>
+    <t>redes sociales</t>
+  </si>
+  <si>
+    <t>cuales redes sociales</t>
+  </si>
+  <si>
+    <t>parentesco, vinculo o relacion con el niño</t>
+  </si>
+  <si>
+    <t>adulto protector /referente victima</t>
+  </si>
+  <si>
+    <t>si la respuesta es no, indicar los datos del ad</t>
+  </si>
+  <si>
+    <t>personas aquien el niño conto hechos</t>
+  </si>
+  <si>
+    <t>como supo usted de los hechos</t>
   </si>
 </sst>
 </file>
@@ -582,16 +618,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -1151,6 +1187,12 @@
       <c r="B43" t="s">
         <v>70</v>
       </c>
+      <c r="D43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -1158,6 +1200,292 @@
       </c>
       <c r="B44" t="s">
         <v>71</v>
+      </c>
+      <c r="D44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
